--- a/Ambiente/Debin - ISO - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - ISO - Escenarios y Casos de Pruebas.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9010D4-1A75-434F-BAC6-EC6472EBC545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687DA8E2-F8E1-4AC2-BF24-42CE57F488BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos de Prueba" sheetId="11" r:id="rId1"/>
-    <sheet name="ISO" sheetId="7" r:id="rId2"/>
-    <sheet name="CreditoISO" sheetId="8" r:id="rId3"/>
-    <sheet name="ReversaISO" sheetId="9" r:id="rId4"/>
-    <sheet name="ConsultaISO" sheetId="10" r:id="rId5"/>
+    <sheet name="ISO" sheetId="7" r:id="rId1"/>
+    <sheet name="CreditoISO" sheetId="8" r:id="rId2"/>
+    <sheet name="ReversaISO" sheetId="9" r:id="rId3"/>
+    <sheet name="ConsultaISO" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
   <si>
     <t>Parametros</t>
   </si>
@@ -202,93 +199,6 @@
   </si>
   <si>
     <t>"producto":"iso","importe": {"importe":99999999999999.00}</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
-  </si>
-  <si>
-    <t>Caso</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Cuenta</t>
-  </si>
-  <si>
-    <t>CUIT</t>
-  </si>
-  <si>
-    <t>Banco</t>
-  </si>
-  <si>
-    <t>Sucursal</t>
-  </si>
-  <si>
-    <t>CBU</t>
-  </si>
-  <si>
-    <t>Titular</t>
-  </si>
-  <si>
-    <t>9980000400000135724688</t>
-  </si>
-  <si>
-    <t>Prueba Notificacion 3</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>TESTING</t>
-  </si>
-  <si>
-    <t>Comprador</t>
-  </si>
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>TESTING2</t>
-  </si>
-  <si>
-    <t>Respuesta mock sql</t>
-  </si>
-  <si>
-    <t>AltaLink998.1</t>
-  </si>
-  <si>
-    <t>Responder</t>
-  </si>
-  <si>
-    <t>Respuesta ok Responder</t>
-  </si>
-  <si>
-    <t>9980000400000246813578</t>
-  </si>
-  <si>
-    <t>Moneda</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>9980547400000000000055</t>
-  </si>
-  <si>
-    <t>0547</t>
-  </si>
-  <si>
-    <t>Prueba Notificacion 5</t>
-  </si>
-  <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>Si</t>
   </si>
   <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta":{"codigo":"03","descripcion":"MONTO SUPERA VALOR MAXIMO/MINIMO PERMITIDO"}}}</t>
@@ -342,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,10 +264,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,253 +543,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6396B6A0-0222-4606-84AB-AF7C6B3E9151}">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="5"/>
-    <col min="7" max="7" width="23.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3">
-        <v>20000009971</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4">
-        <v>20000009971</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5">
-        <v>20201003009</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6">
-        <v>20201003009</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7">
-        <v>20000009998</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="88.21875" customWidth="1"/>
-    <col min="4" max="4" width="158.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="88.28515625" customWidth="1"/>
+    <col min="4" max="4" width="158.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -900,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>30306</v>
       </c>
@@ -915,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -929,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -940,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -951,7 +627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -962,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -973,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -984,7 +660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>30341</v>
       </c>
@@ -1006,7 +682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2F3A8-B744-452B-AEBC-C3A3D69EA3CD}">
   <dimension ref="A1:E48"/>
   <sheetViews>
@@ -1014,15 +690,15 @@
       <selection activeCell="F1" sqref="F1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="99" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>30306</v>
       </c>
@@ -1053,7 +729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30313</v>
       </c>
@@ -1064,13 +740,13 @@
         <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30314</v>
       </c>
@@ -1087,7 +763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30315</v>
       </c>
@@ -1098,13 +774,13 @@
         <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30315</v>
       </c>
@@ -1115,13 +791,13 @@
         <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30317</v>
       </c>
@@ -1132,13 +808,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30318</v>
       </c>
@@ -1149,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30319</v>
       </c>
@@ -1172,7 +848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30320</v>
       </c>
@@ -1183,13 +859,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30321</v>
       </c>
@@ -1200,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30322</v>
       </c>
@@ -1220,7 +896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>30323</v>
       </c>
@@ -1235,7 +911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30324</v>
       </c>
@@ -1250,7 +926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30325</v>
       </c>
@@ -1265,7 +941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30326</v>
       </c>
@@ -1280,7 +956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>30327</v>
       </c>
@@ -1295,7 +971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30328</v>
       </c>
@@ -1310,7 +986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30329</v>
       </c>
@@ -1325,7 +1001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30330</v>
       </c>
@@ -1340,7 +1016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30331</v>
       </c>
@@ -1355,7 +1031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30332</v>
       </c>
@@ -1370,7 +1046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>30333</v>
       </c>
@@ -1385,7 +1061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30334</v>
       </c>
@@ -1400,7 +1076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30335</v>
       </c>
@@ -1412,117 +1088,117 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
@@ -1532,22 +1208,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455DA135-C14A-4379-B528-F7128FE2B45D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30383</v>
       </c>
@@ -1578,7 +1254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30395</v>
       </c>
@@ -1595,7 +1271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30396</v>
       </c>
@@ -1618,24 +1294,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21057480-47E6-469A-BECA-A3017ED01680}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>3</v>
       </c>

--- a/Ambiente/Debin - ISO - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - ISO - Escenarios y Casos de Pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687DA8E2-F8E1-4AC2-BF24-42CE57F488BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95A5FD4-C433-45D3-8248-BDFF5C8AC091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO" sheetId="7" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>"producto":"iso"|"producto":"iso"</t>
   </si>
   <si>
-    <t>"producto":"iso","concepto": "ALQ","objeto":{"ori_red": "P"}</t>
-  </si>
-  <si>
     <t>"producto":"iso","concepto": "erroneo"</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta":{"codigo":"01","descripcion":"NO EXISTE EL CBU VENDEDOR"}}}</t>
+  </si>
+  <si>
+    <t>"producto":"iso","concepto": "ALQ","objeto":{"ori_red": "L"}</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -668,13 +668,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2F3A8-B744-452B-AEBC-C3A3D69EA3CD}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:XFD1048576"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,13 +737,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,13 +754,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,13 +788,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,10 +808,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,10 +825,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,10 +842,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,10 +859,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,10 +876,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,10 +1265,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1276,16 +1276,16 @@
         <v>30396</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21057480-47E6-469A-BECA-A3017ED01680}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
